--- a/doc/工作甘特圖.xlsx
+++ b/doc/工作甘特圖.xlsx
@@ -539,32 +539,32 @@
     <xf numFmtId="176" fontId="10" fillId="8" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -886,7 +886,7 @@
   <dimension ref="A1:BB29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="Y5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
@@ -928,86 +928,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27" t="s">
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="26" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="26" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="27" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="26" t="s">
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27" t="s">
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="26" t="s">
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="27" t="s">
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="26" t="s">
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="27" t="s">
+      <c r="AV1" s="30"/>
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -1179,7 +1179,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="16"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -1231,13 +1231,13 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="9"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="5"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1300,7 +1300,7 @@
       <c r="E5" s="16">
         <v>42912</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="13"/>
@@ -1364,7 +1364,7 @@
       <c r="E6" s="16">
         <v>42912</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="26" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="13"/>
@@ -1422,7 +1422,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="29"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1486,7 +1486,7 @@
       <c r="E8" s="16">
         <v>42909</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="13"/>
@@ -1550,7 +1550,7 @@
       <c r="E9" s="16">
         <v>42909</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="13"/>
@@ -1614,7 +1614,7 @@
       <c r="E10" s="16">
         <v>42911</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="27" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="13"/>
@@ -1672,7 +1672,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1736,7 +1736,7 @@
       <c r="E12" s="16">
         <v>42912</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="13"/>
@@ -1800,7 +1800,7 @@
       <c r="E13" s="16">
         <v>42912</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="13"/>
@@ -1858,7 +1858,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -1922,7 +1922,7 @@
       <c r="E15" s="16">
         <v>42912</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="13"/>
@@ -1980,7 +1980,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="17" spans="1:54">
       <c r="A17" s="3"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="5"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2102,7 +2102,7 @@
       <c r="E18" s="18">
         <v>42932</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="27" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="14"/>
@@ -2166,7 +2166,7 @@
       <c r="E19" s="18">
         <v>42932</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="14"/>
@@ -2224,7 +2224,7 @@
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="31"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -2288,7 +2288,7 @@
       <c r="E21" s="18">
         <v>42932</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="27" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="14"/>
@@ -2358,7 +2358,7 @@
       <c r="E23" s="19">
         <v>42935</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="27" t="s">
         <v>39</v>
       </c>
       <c r="AF23" s="20"/>
@@ -2441,21 +2441,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
